--- a/data/trans_camb/P26-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P26-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-4.513712054060187</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-17.37373067725735</v>
+        <v>-17.37373067725736</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.959685506359719</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8746811889873979</v>
+        <v>0.1925695041931157</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.447765743292287</v>
+        <v>-8.60034955549559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.88882130077758</v>
+        <v>-17.46186574289219</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.75487509139772</v>
+        <v>-2.939304114917448</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.11800236974017</v>
+        <v>-11.72656990891246</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-23.39609222888069</v>
+        <v>-23.23663261317233</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.160670927710977</v>
+        <v>0.8012672439686135</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-7.669572632078219</v>
+        <v>-7.84492707818014</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-18.04292218497768</v>
+        <v>-18.35151424863872</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.16129809461875</v>
+        <v>13.08252921032603</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.877002156957993</v>
+        <v>3.035750679953017</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.89290567006635</v>
+        <v>-8.122301391686557</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.07248517829927</v>
+        <v>12.63940180018331</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.503874508712484</v>
+        <v>2.725483387765693</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-10.89658922108972</v>
+        <v>-10.75257180745808</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.98624770543916</v>
+        <v>10.57329528527482</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.391033107742665</v>
+        <v>1.200106074833805</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-10.58820316528084</v>
+        <v>-10.58712140187224</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.03504631970443814</v>
+        <v>0.006393018939972461</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3519540266270487</v>
+        <v>-0.3481315310475019</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6945090968137283</v>
+        <v>-0.7033191689933324</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1299415516203279</v>
+        <v>-0.09253835442065847</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3855001551159344</v>
+        <v>-0.3732799506554166</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7323973390017677</v>
+        <v>-0.7309602660360289</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04039701836081983</v>
+        <v>0.02994399057144407</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2898480080842744</v>
+        <v>-0.2950615108683354</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6878148157145502</v>
+        <v>-0.6861816248525798</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7176022862743714</v>
+        <v>0.690793900675432</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1507073191845223</v>
+        <v>0.1674950126232236</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.4041868124659738</v>
+        <v>-0.4119998888447648</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.4833547955362659</v>
+        <v>0.5432515650772954</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1182466256489314</v>
+        <v>0.1186269283280603</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.4708094457239361</v>
+        <v>-0.4646785821137346</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5180085242885213</v>
+        <v>0.4893543455744572</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.06676079484156999</v>
+        <v>0.06252029175801244</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.4957566478105244</v>
+        <v>-0.483571514026101</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-8.0776796840098</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-19.47738889264248</v>
+        <v>-19.47738889264247</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.687592279843033</v>
+        <v>-3.384735538737428</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.727017840525878</v>
+        <v>-9.540643097564258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-20.20601816353976</v>
+        <v>-20.04343505818943</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-12.0100661860999</v>
+        <v>-11.47880867501986</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-19.90029785941474</v>
+        <v>-20.14851449810465</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-29.27111375775235</v>
+        <v>-29.5517919128936</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.725509941122564</v>
+        <v>-5.910122583574353</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-12.80118440892128</v>
+        <v>-13.11187010084929</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-23.42990985410004</v>
+        <v>-23.71689548647259</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.44060299660908</v>
+        <v>10.07390613474934</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.727086646759792</v>
+        <v>3.111875972178818</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-9.218060707958726</v>
+        <v>-8.809893354168393</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.497373301188126</v>
+        <v>3.069202849326357</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-5.934467637097121</v>
+        <v>-6.63420128084893</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-17.53724121325703</v>
+        <v>-17.30566056028019</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.331809297141585</v>
+        <v>4.552056979302295</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-3.256238415012637</v>
+        <v>-3.272126301572673</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-15.40841117474911</v>
+        <v>-15.28156216481806</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1038009695728953</v>
+        <v>-0.1297493574039287</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3410498920070933</v>
+        <v>-0.3593021296057712</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7663854919492006</v>
+        <v>-0.7661107596858097</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.296265656936038</v>
+        <v>-0.2887367721013432</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5033211026578057</v>
+        <v>-0.4958613597878322</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7303217927801063</v>
+        <v>-0.735603235007106</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1778439906150728</v>
+        <v>-0.1817662188742954</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3998465263982681</v>
+        <v>-0.4068004144441144</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.7246328608605281</v>
+        <v>-0.7279388070608149</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5538721203711826</v>
+        <v>0.5091753922325716</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1823306981405602</v>
+        <v>0.1574887611997927</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.4734617104690971</v>
+        <v>-0.4582919640515045</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1079520397864975</v>
+        <v>0.09706319854930263</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1781485160600818</v>
+        <v>-0.188626509748409</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5368081906520193</v>
+        <v>-0.5346906208855862</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1575390049886401</v>
+        <v>0.1666574882371102</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1206467762876226</v>
+        <v>-0.1259112737249118</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.5632785667815566</v>
+        <v>-0.5526262412838542</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09333910467712916</v>
+        <v>-0.3319592626592285</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.567123259736146</v>
+        <v>-8.083894480788082</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-23.97455733315683</v>
+        <v>-24.5369442281651</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.72710934685461</v>
+        <v>-9.768055053746449</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-32.63453638924435</v>
+        <v>-32.4722979642773</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-44.37141171052622</v>
+        <v>-44.26116220678598</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.01407094761303932</v>
+        <v>-0.02055624497993645</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-12.33481868565648</v>
+        <v>-12.00931350958767</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-26.86656144327157</v>
+        <v>-27.53330374151667</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.29618206255937</v>
+        <v>10.95817813826585</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.335170100490802</v>
+        <v>3.467491242294016</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-14.64364237423073</v>
+        <v>-14.50260851472185</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.907073747487741</v>
+        <v>10.52893573639505</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-10.22903210917685</v>
+        <v>-11.5455164464902</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-26.74672279321183</v>
+        <v>-26.380308097818</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.469156593075363</v>
+        <v>9.855911536995155</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.845054364699725</v>
+        <v>-2.017472850362824</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-18.6385466664006</v>
+        <v>-18.80506364111583</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.003285013941903252</v>
+        <v>-0.01030401194681682</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2742675429629501</v>
+        <v>-0.2597945551019204</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.777160050742937</v>
+        <v>-0.7838791980521498</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2099838023296647</v>
+        <v>-0.2037730204117048</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6735496244116623</v>
+        <v>-0.6738814824961435</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.879936844093855</v>
+        <v>-0.8801572378232454</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.0006027937590363456</v>
+        <v>-0.001551983170050817</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3572204178029757</v>
+        <v>-0.3554618111329875</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.7986709711313499</v>
+        <v>-0.7974004778395097</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4539089724288612</v>
+        <v>0.4331809858734396</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1299668569469462</v>
+        <v>0.1331386233814335</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.5580320837281511</v>
+        <v>-0.5631780716708714</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2539156815415012</v>
+        <v>0.2762132188738655</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.267913912856425</v>
+        <v>-0.3021882280427874</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.7011491221003695</v>
+        <v>-0.6847330270270179</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3143358603010776</v>
+        <v>0.3390396175789274</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.06401846066793471</v>
+        <v>-0.06085608579193482</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.6405117896255357</v>
+        <v>-0.6357815881883199</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.549678896424278</v>
+        <v>1.241357824861332</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.88094614155526</v>
+        <v>-5.156853555107044</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-18.4765046245013</v>
+        <v>-18.40990925034268</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.032577821946147</v>
+        <v>-5.278019181276782</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-16.77151027954078</v>
+        <v>-16.44293644448517</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-28.49635104153393</v>
+        <v>-28.12370137078687</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6900700076333288</v>
+        <v>0.3780550110423705</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-7.697843044694228</v>
+        <v>-7.623702811943279</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-20.82474064826686</v>
+        <v>-20.54630936677231</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.477794080163488</v>
+        <v>9.455532709268482</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.050331352999065</v>
+        <v>2.817931350206132</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-11.27382998125146</v>
+        <v>-11.04271365702657</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.047942734116668</v>
+        <v>5.881911180775313</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-6.661522417104512</v>
+        <v>-6.31677278930298</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-19.64329867866893</v>
+        <v>-19.24758700875365</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.076099643825505</v>
+        <v>6.916760543063581</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.719652325480084</v>
+        <v>-1.679027817430121</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-15.03097565764869</v>
+        <v>-14.81574123968157</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.03310464106215891</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.5298113551756379</v>
+        <v>-0.5298113551756378</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.006091254315806012</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.05259353803726684</v>
+        <v>0.04185167729657907</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1655261893035544</v>
+        <v>-0.1757852419755619</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6235297656813341</v>
+        <v>-0.6296696377580231</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1130732901941354</v>
+        <v>-0.1201819292572326</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3808407717815734</v>
+        <v>-0.3701913122150724</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6379153203348208</v>
+        <v>-0.6373587264466521</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02159021545366555</v>
+        <v>0.007302651106737765</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2258012996458654</v>
+        <v>-0.2245289676058553</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.604711238566818</v>
+        <v>-0.596924492383878</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3666163310770641</v>
+        <v>0.3654713358730068</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1129019992424508</v>
+        <v>0.1082136123100979</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.4177010458551002</v>
+        <v>-0.4190681148512729</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1562341780754188</v>
+        <v>0.1503801993151454</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1709497336382098</v>
+        <v>-0.1640198384990552</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.4982376979939281</v>
+        <v>-0.5032393084740159</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2268301049909663</v>
+        <v>0.2180794338160313</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.0552391645212232</v>
+        <v>-0.05526737242226534</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.4774983593993429</v>
+        <v>-0.4700642642067113</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.801117843095055</v>
+        <v>-5.93286504249332</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-14.24434647785593</v>
+        <v>-14.55500328948997</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-24.98013892455549</v>
+        <v>-24.48862613450848</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-8.537324483309904</v>
+        <v>-8.483323258996155</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-19.46752464492089</v>
+        <v>-19.60038987123222</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-33.63706748450082</v>
+        <v>-33.91021080659184</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-6.421473934083129</v>
+        <v>-6.142872876041509</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-16.31061342813481</v>
+        <v>-16.40329271375104</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-28.62719892260263</v>
+        <v>-28.59522004862839</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.779159011090499</v>
+        <v>7.410983431665239</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.041113948390544</v>
+        <v>-2.416683105298081</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-11.59053888939362</v>
+        <v>-12.10271440500344</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.90150078261011</v>
+        <v>2.590686333494868</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-8.265408749040553</v>
+        <v>-8.181440419756704</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-23.60373164921189</v>
+        <v>-23.65127345697736</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.518485842545976</v>
+        <v>2.587954236207017</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-7.496411551923678</v>
+        <v>-7.781112854995829</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-20.42683882859856</v>
+        <v>-20.55488109651064</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.3062501449308963</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.6265113679101654</v>
+        <v>-0.6265113679101655</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1824428430243023</v>
+        <v>-0.1667242385418025</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3916861548275811</v>
+        <v>-0.3984080429166124</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6890637549743693</v>
+        <v>-0.6719556793110701</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1849302483497903</v>
+        <v>-0.1784523164104094</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4154074560087597</v>
+        <v>-0.4084717371234972</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7137300183162757</v>
+        <v>-0.7109063377134601</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1506689634060486</v>
+        <v>-0.1471479711184934</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3844861178531801</v>
+        <v>-0.3886814793975606</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6817334712340583</v>
+        <v>-0.676838881362141</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2792856882645374</v>
+        <v>0.2510182799295347</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.07146173326071807</v>
+        <v>-0.07947386805197698</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.4102249805086786</v>
+        <v>-0.406871514724991</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.07102732581801269</v>
+        <v>0.06381256690437655</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.2059881071854346</v>
+        <v>-0.1966318850918894</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.5853865782063359</v>
+        <v>-0.5785875640093705</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06754914513883277</v>
+        <v>0.06995561594749813</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2026508692325015</v>
+        <v>-0.2136056702055722</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.5627344469375647</v>
+        <v>-0.562385440146154</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.55903355831175</v>
+        <v>-10.27838547288804</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-18.41303810239832</v>
+        <v>-18.6865672862107</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-38.71977025875902</v>
+        <v>-39.90523141743923</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.335708296826301</v>
+        <v>0.8619453332180544</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-11.56966413839437</v>
+        <v>-11.96287263043554</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-25.02172986841164</v>
+        <v>-24.65715651242261</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.1768048819403227</v>
+        <v>0.1064967700833324</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-12.03277060671444</v>
+        <v>-12.07446203762737</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-26.50871706125838</v>
+        <v>-26.80321829885334</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>6.056632250272322</v>
+        <v>6.678217491458993</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-2.076137849568584</v>
+        <v>-2.309247311121864</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-19.81807520930747</v>
+        <v>-19.65615469820691</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9.37632871741673</v>
+        <v>9.164127039188621</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-3.565096721311285</v>
+        <v>-4.251380593764003</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-17.11051720339178</v>
+        <v>-17.06505478976728</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.278348394524585</v>
+        <v>7.185632415365618</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-4.877270763874816</v>
+        <v>-5.079756957059184</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-19.39318773830404</v>
+        <v>-19.62680234041249</v>
       </c>
     </row>
     <row r="37">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2191789445065261</v>
+        <v>-0.207896807237561</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3737669154315009</v>
+        <v>-0.3793606297939794</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.8230465884847542</v>
+        <v>-0.8192810089847755</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.03908558466456369</v>
+        <v>0.02568163956966688</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3377785211471385</v>
+        <v>-0.34563268682758</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.7256951339657375</v>
+        <v>-0.7225129564155746</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.002478455822065927</v>
+        <v>0.002929600967462533</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3204235465064054</v>
+        <v>-0.3261573254336492</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.7271717101387271</v>
+        <v>-0.728594845376349</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.143520800278782</v>
+        <v>0.1597800397547118</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.04934412982860693</v>
+        <v>-0.05222585121536626</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.467184986162742</v>
+        <v>-0.4482633587873007</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.310550928934447</v>
+        <v>0.3005421372498367</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.118399059593932</v>
+        <v>-0.1353699381932087</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.5508246125539729</v>
+        <v>-0.5552433019963682</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2209595788562963</v>
+        <v>0.2111966543667494</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.142290170529514</v>
+        <v>-0.1493080621706528</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.5683487185691637</v>
+        <v>-0.5755807056623641</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.830978180303482</v>
+        <v>1.814035399946294</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.75440536894567</v>
+        <v>-5.581310364777189</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-19.35491345829471</v>
+        <v>-19.40167081537529</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.825533567813987</v>
+        <v>-0.5110142523621398</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-12.69536093529328</v>
+        <v>-12.99296610217523</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-25.5092855097967</v>
+        <v>-25.44220703147411</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.168172838838128</v>
+        <v>1.307134920859433</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-8.546084415947647</v>
+        <v>-8.62400051520814</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-21.82318673666424</v>
+        <v>-21.89038534514365</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>6.635433560373344</v>
+        <v>6.623109479784006</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.195546476636322</v>
+        <v>-0.9742327396766537</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-14.99354137643787</v>
+        <v>-15.13352808378627</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.242034379604521</v>
+        <v>4.193367515537168</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-7.94134064156632</v>
+        <v>-8.128978652820642</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-21.24276906490733</v>
+        <v>-21.29838775785575</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.644044895549333</v>
+        <v>4.775856932162306</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-5.352525965992082</v>
+        <v>-5.166023282584047</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-18.85174569318442</v>
+        <v>-18.82384210358402</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.2797880000981772</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.6313368149800738</v>
+        <v>-0.6313368149800739</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.08997201636485262</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.06243171578672517</v>
+        <v>0.0629328959052283</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1937197044741125</v>
+        <v>-0.1907319853719235</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.6514242634472079</v>
+        <v>-0.6527992824237887</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.02246603660318496</v>
+        <v>-0.01452968817516047</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3311794527353938</v>
+        <v>-0.3371160783515975</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.6650125425975817</v>
+        <v>-0.665426557355422</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03509605754200967</v>
+        <v>0.03914941879311006</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2529943524989266</v>
+        <v>-0.257633155513559</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.6473657557605623</v>
+        <v>-0.6496933862404242</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2397642156393399</v>
+        <v>0.24044495280359</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.04389960680492528</v>
+        <v>-0.03936702215233977</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.5432402591780423</v>
+        <v>-0.5464179377856044</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1180948308432478</v>
+        <v>0.1158927298078293</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.2206233786866722</v>
+        <v>-0.2251761641373571</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.5932288588954274</v>
+        <v>-0.5947268403364351</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.144089022994311</v>
+        <v>0.1486015677094517</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.1665228966069951</v>
+        <v>-0.1620662587619713</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.587764084980992</v>
+        <v>-0.5862539419953252</v>
       </c>
     </row>
     <row r="46">
